--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3E167-FBA2-46A3-BCEA-52580C48B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031D324-2112-4FD6-9560-69286E913832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,20 +1373,35 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1412,27 +1427,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1447,30 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>44983</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2173,44 +2173,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H39</f>
         <v>171457</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>44744</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2228,14 +2228,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2250,37 +2250,37 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="40">
         <v>92000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>92000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2293,37 +2293,37 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="40">
         <v>63870</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="39">
         <v>1</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="37">
         <f>F27*G27</f>
         <v>63870</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2338,24 +2338,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2368,19 +2368,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46">
+      <c r="G33" s="32"/>
+      <c r="H33" s="33">
         <f>SUM(H24:H31)</f>
         <v>155870</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2388,19 +2388,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="36">
+      <c r="G36" s="36"/>
+      <c r="H36" s="37">
         <f>H33*0.1</f>
         <v>15587</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2408,19 +2408,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="48">
+      <c r="G39" s="32"/>
+      <c r="H39" s="35">
         <f>H33+H36</f>
         <v>171457</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="48"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2429,6 +2429,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2445,22 +2461,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2474,7 +2474,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2512,7 +2514,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>44983</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2557,48 +2559,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>44985</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
-        <v>45013</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+        <v>45074</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2616,14 +2618,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2638,33 +2640,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>29800</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2677,19 +2679,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2697,19 +2699,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2717,19 +2719,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2738,12 +2740,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2752,12 +2754,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2870,44 +2872,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>160000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>44994</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2925,14 +2927,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2947,33 +2949,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>145455</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>145455</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2986,19 +2988,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>145455</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3006,18 +3008,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <v>14545</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3025,19 +3027,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>160000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3046,6 +3048,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3055,17 +3068,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3178,44 +3180,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>1500000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>45000</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3233,14 +3235,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3255,33 +3257,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>1363637</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3294,19 +3296,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3314,18 +3316,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <v>136363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3333,19 +3335,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3354,17 +3356,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3374,6 +3365,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3485,41 +3487,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="63">
+      <c r="B18" s="53"/>
+      <c r="C18" s="58">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3536,39 +3538,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="55">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="63">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="55"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3580,26 +3582,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="55">
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="63">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3611,26 +3613,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="55">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3642,26 +3644,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="55">
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="63">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="55"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3673,26 +3675,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="55">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="63">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="55"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3704,16 +3706,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="62">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="56"/>
-      <c r="G40" s="54"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3726,12 +3728,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3745,6 +3741,12 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031D324-2112-4FD6-9560-69286E913832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981A1CF-8218-4B39-85B2-828D725719B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -1373,6 +1373,45 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1388,51 +1427,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1456,21 +1471,6 @@
     </xf>
     <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1639,7 +1639,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>530226</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>45875</xdr:rowOff>
+      <xdr:rowOff>55400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45041</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2173,44 +2173,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H39</f>
         <v>171457</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>44744</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2228,14 +2228,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2250,37 +2250,37 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>92000</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>92000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2293,37 +2293,37 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="34">
         <v>63870</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="35">
         <v>1</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <f>F27*G27</f>
         <v>63870</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2338,24 +2338,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="37"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2368,19 +2368,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33">
+      <c r="G33" s="45"/>
+      <c r="H33" s="46">
         <f>SUM(H24:H31)</f>
         <v>155870</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2388,19 +2388,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37">
+      <c r="G36" s="49"/>
+      <c r="H36" s="36">
         <f>H33*0.1</f>
         <v>15587</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2408,19 +2408,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="35">
+      <c r="G39" s="45"/>
+      <c r="H39" s="48">
         <f>H33+H36</f>
         <v>171457</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2429,22 +2429,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2461,6 +2445,22 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2474,7 +2474,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45041</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2563,44 +2563,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>45074</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2618,14 +2618,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2640,33 +2640,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>29800</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2679,19 +2679,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2699,19 +2699,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2719,19 +2719,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2740,12 +2740,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2754,12 +2754,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2772,9 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E04D83-24E5-4A13-82C8-507A7649C9BF}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2811,7 +2809,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>44966</v>
+        <f ca="1">TODAY()</f>
+        <v>45054</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2853,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>44966</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2872,44 +2871,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
-        <v>160000</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+        <v>165000</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
-        <v>44994</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+        <v>45085</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2927,14 +2926,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2949,33 +2948,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
-        <v>145455</v>
-      </c>
-      <c r="G24" s="39">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
+        <v>150000</v>
+      </c>
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
-        <v>145455</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2988,19 +2987,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
-        <v>145455</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3008,18 +3007,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
-        <v>14545</v>
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
+        <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3027,19 +3026,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
-        <v>160000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3048,17 +3047,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3068,6 +3056,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3180,44 +3179,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>1500000</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>45000</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3235,14 +3234,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3257,33 +3256,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>1363637</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3296,19 +3295,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3316,18 +3315,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <v>136363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3335,19 +3334,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3356,6 +3355,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3365,17 +3375,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3487,41 +3486,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="58">
+      <c r="B18" s="58"/>
+      <c r="C18" s="63">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3538,39 +3537,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="63">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="55">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3582,26 +3581,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3613,26 +3612,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="63"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3644,26 +3643,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3675,26 +3674,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="63">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="63"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3706,16 +3705,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="54">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="64"/>
-      <c r="G40" s="62"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3728,6 +3727,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3741,12 +3746,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981A1CF-8218-4B39-85B2-828D725719B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03887D-D240-4995-A8DA-3446CFA97FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <r>
       <rPr>
@@ -957,6 +957,11 @@
     <rPh sb="55" eb="57">
       <t>メイギ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Facebook
+アカウントレンタル</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1373,20 +1378,35 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1412,27 +1432,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1447,30 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2124,7 +2129,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2173,44 +2178,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H39</f>
         <v>171457</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>44744</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2228,14 +2233,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2250,37 +2255,37 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="40">
         <v>92000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>92000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2293,37 +2298,37 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="40">
         <v>63870</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="39">
         <v>1</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="37">
         <f>F27*G27</f>
         <v>63870</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2338,24 +2343,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2368,19 +2373,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46">
+      <c r="G33" s="32"/>
+      <c r="H33" s="33">
         <f>SUM(H24:H31)</f>
         <v>155870</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2388,19 +2393,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="36">
+      <c r="G36" s="36"/>
+      <c r="H36" s="37">
         <f>H33*0.1</f>
         <v>15587</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2408,19 +2413,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="48">
+      <c r="G39" s="32"/>
+      <c r="H39" s="35">
         <f>H33+H36</f>
         <v>171457</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="48"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2429,6 +2434,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2445,22 +2466,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2514,7 +2519,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2563,44 +2568,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>45074</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2618,14 +2623,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2640,33 +2645,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>29800</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2679,19 +2684,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2699,19 +2704,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2719,19 +2724,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2740,12 +2745,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2754,12 +2759,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2809,7 +2814,6 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">TODAY()</f>
         <v>45054</v>
       </c>
     </row>
@@ -2871,44 +2875,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>165000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>45085</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2926,14 +2930,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2948,33 +2952,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="50" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>150000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2987,19 +2993,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3007,18 +3013,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3026,19 +3032,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3047,6 +3053,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3056,17 +3073,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3179,44 +3185,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
         <f>H33</f>
         <v>1500000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
         <v>45000</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3234,14 +3240,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3256,33 +3262,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
         <v>1363637</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="39">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3295,19 +3301,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
         <v>1363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3315,18 +3321,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
         <v>136363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3334,19 +3340,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
         <f>H27+H30</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3355,17 +3361,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3375,6 +3370,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3486,41 +3492,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="63">
+      <c r="B18" s="53"/>
+      <c r="C18" s="58">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3537,39 +3543,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="55">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="63">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="55"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3581,26 +3587,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="55">
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="63">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3612,26 +3618,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="55">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3643,26 +3649,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="55">
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="63">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="55"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3674,26 +3680,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="55">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="63">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="55"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3705,16 +3711,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="62">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="56"/>
-      <c r="G40" s="54"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3727,12 +3733,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3746,6 +3746,12 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03887D-D240-4995-A8DA-3446CFA97FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD280CC6-C7D2-4EF0-A8DF-AF86BF5508CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="請求書3" sheetId="9" r:id="rId3"/>
     <sheet name="請求書4" sheetId="10" r:id="rId4"/>
     <sheet name="請求書5" sheetId="11" r:id="rId5"/>
+    <sheet name="請求書6" sheetId="12" r:id="rId6"/>
+    <sheet name="請求書7" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -962,6 +964,42 @@
   <si>
     <t>Facebook
 アカウントレンタル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>株式会社北摂ライフスタイル　御中</t>
+    <rPh sb="14" eb="16">
+      <t>オンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>顧客紹介料</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>株式会社北摂
+ライフスタイル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内野　真静　様</t>
+    <rPh sb="0" eb="2">
+      <t>ウチノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マコト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シズカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内野　真静</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1754,6 +1792,140 @@
         <a:xfrm>
           <a:off x="4718051" y="914401"/>
           <a:ext cx="552450" cy="529821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895352</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>202711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530226</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCADCABF-0272-4EDE-95C0-E7994CA11E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="6488"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="36000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4425952" y="999636"/>
+          <a:ext cx="682624" cy="763914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895352</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>202711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530226</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E43A1DC-9F4A-4CEA-B938-884309F80344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="6488"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="36000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4425952" y="999636"/>
+          <a:ext cx="682624" cy="782964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E04D83-24E5-4A13-82C8-507A7649C9BF}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3085,7 +3257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7D9D1-DDA0-4052-A2C8-B95EB91575E0}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3120,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>44972</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3166,7 +3338,8 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>44972</v>
+        <f>G4</f>
+        <v>45137</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3191,7 +3364,7 @@
       <c r="B16" s="44"/>
       <c r="C16" s="45">
         <f>H33</f>
-        <v>1500000</v>
+        <v>400000</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="49" t="s">
@@ -3216,7 +3389,7 @@
       <c r="B18" s="44"/>
       <c r="C18" s="47">
         <f>EDATE(G11,1)</f>
-        <v>45000</v>
+        <v>45168</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="49"/>
@@ -3270,14 +3443,14 @@
       <c r="D24" s="51"/>
       <c r="E24" s="41"/>
       <c r="F24" s="40">
-        <v>1363637</v>
+        <v>363637</v>
       </c>
       <c r="G24" s="39">
         <v>1</v>
       </c>
       <c r="H24" s="37">
         <f>F24*G24</f>
-        <v>1363637</v>
+        <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3307,7 +3480,7 @@
       <c r="G27" s="32"/>
       <c r="H27" s="33">
         <f>SUM(H24:H26)</f>
-        <v>1363637</v>
+        <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3326,7 +3499,7 @@
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="37">
-        <v>136363</v>
+        <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3346,7 +3519,7 @@
       <c r="G33" s="32"/>
       <c r="H33" s="35">
         <f>H27+H30</f>
-        <v>1500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
@@ -3392,9 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <cols>
@@ -3758,4 +3929,595 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
+        <f>H33</f>
+        <v>456086</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
+        <v>414624</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37">
+        <f>F24*G24</f>
+        <v>414624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
+        <f>SUM(H24:H26)</f>
+        <v>414624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
+        <v>41462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
+        <f>H27+H30</f>
+        <v>456086</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G4</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
+        <f>H33</f>
+        <v>200000</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="49"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40">
+        <v>181819</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37">
+        <f>F24*G24</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33">
+        <f>SUM(H24:H26)</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37">
+        <v>18181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="35">
+        <f>H27+H30</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD280CC6-C7D2-4EF0-A8DF-AF86BF5508CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3894C5B0-E865-45DC-B84E-54C364D74D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -1001,6 +1001,63 @@
   <si>
     <t>内野　真静</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>AXIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>株式会社</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>571</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0022</t>
+    </r>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1327,7 +1384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1416,6 +1473,45 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1431,51 +1527,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1500,20 +1572,8 @@
     <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2301,7 +2361,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2350,44 +2410,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H39</f>
         <v>171457</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>44744</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2405,14 +2465,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2427,37 +2487,37 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>92000</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>92000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2470,37 +2530,37 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="34">
         <v>63870</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="35">
         <v>1</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <f>F27*G27</f>
         <v>63870</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2515,24 +2575,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="37"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2545,19 +2605,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33">
+      <c r="G33" s="45"/>
+      <c r="H33" s="46">
         <f>SUM(H24:H31)</f>
         <v>155870</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2565,19 +2625,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37">
+      <c r="G36" s="49"/>
+      <c r="H36" s="36">
         <f>H33*0.1</f>
         <v>15587</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2585,19 +2645,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="35">
+      <c r="G39" s="45"/>
+      <c r="H39" s="48">
         <f>H33+H36</f>
         <v>171457</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2606,22 +2666,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2638,6 +2682,22 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2691,7 +2751,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2740,44 +2800,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>45074</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2795,14 +2855,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2817,33 +2877,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>29800</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2856,19 +2916,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2876,19 +2936,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2896,19 +2956,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2917,12 +2977,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2931,12 +2991,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3047,44 +3107,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>165000</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>45085</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3102,14 +3162,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3124,35 +3184,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>150000</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3165,19 +3225,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3185,18 +3245,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3204,19 +3264,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3225,17 +3285,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3245,6 +3294,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3358,44 +3418,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3413,14 +3473,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3435,33 +3495,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>363637</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3474,19 +3534,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3494,18 +3554,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3513,19 +3573,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3534,6 +3594,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3543,17 +3614,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3663,41 +3723,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="58">
+      <c r="B18" s="58"/>
+      <c r="C18" s="63">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3714,39 +3774,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="63">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="55">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3758,26 +3818,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3789,26 +3849,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="63"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3820,26 +3880,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3851,26 +3911,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="63">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="63"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3882,16 +3942,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="54">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="64"/>
-      <c r="G40" s="62"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3904,6 +3964,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3917,12 +3983,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3973,7 +4033,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4019,47 +4079,47 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
         <f>H33</f>
         <v>456086</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
         <v>45077</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4077,14 +4137,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4099,35 +4159,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
         <v>414624</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>F24*G24</f>
         <v>414624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4140,19 +4200,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
         <f>SUM(H24:H26)</f>
         <v>414624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4160,18 +4220,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
         <v>41462</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4179,19 +4239,315 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
         <f>H27+H30</f>
         <v>456086</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G4</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f>H33</f>
+        <v>200000</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="42">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34">
+        <v>181819</v>
+      </c>
+      <c r="G24" s="35">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36">
+        <f>F24*G24</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46">
+        <f>SUM(H24:H26)</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="36">
+        <v>18181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="48">
+        <f>H27+H30</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4226,298 +4582,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G4</f>
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45">
-        <f>H33</f>
-        <v>200000</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47">
-        <v>45077</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40">
-        <v>181819</v>
-      </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <f>F24*G24</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33">
-        <f>SUM(H24:H26)</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37">
-        <v>18181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
-        <f>H27+H30</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3894C5B0-E865-45DC-B84E-54C364D74D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA33B1-CDDD-485C-800E-3A126E5988D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -1473,20 +1473,38 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1512,27 +1530,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1547,33 +1574,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45073</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2410,44 +2410,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H39</f>
         <v>171457</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>44744</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2465,14 +2465,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2487,37 +2487,37 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="41">
         <v>92000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>92000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2530,37 +2530,37 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="41">
         <v>63870</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="38">
         <f>F27*G27</f>
         <v>63870</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2575,24 +2575,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2605,19 +2605,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46">
+      <c r="G33" s="33"/>
+      <c r="H33" s="34">
         <f>SUM(H24:H31)</f>
         <v>155870</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2625,19 +2625,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="36">
+      <c r="G36" s="37"/>
+      <c r="H36" s="38">
         <f>H33*0.1</f>
         <v>15587</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2645,19 +2645,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="48">
+      <c r="G39" s="33"/>
+      <c r="H39" s="36">
         <f>H33+H36</f>
         <v>171457</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="48"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2666,6 +2666,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2682,22 +2698,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2711,9 +2711,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2751,7 +2749,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45073</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2796,48 +2794,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>45044</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
-        <v>45074</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+        <v>45105</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2855,14 +2853,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2877,33 +2875,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="B24" s="39"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>29800</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2916,19 +2914,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2936,19 +2934,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2956,19 +2954,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2977,12 +2975,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2991,12 +2989,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3107,44 +3105,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>165000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45085</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3162,14 +3160,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3184,35 +3182,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>150000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3225,19 +3223,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3245,18 +3243,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3264,19 +3262,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3285,6 +3283,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3294,17 +3303,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3418,44 +3416,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3473,14 +3471,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3495,33 +3493,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>363637</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3534,19 +3532,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3554,18 +3552,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3573,19 +3571,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3594,17 +3592,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3614,6 +3601,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3723,41 +3721,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="63">
+      <c r="B18" s="54"/>
+      <c r="C18" s="59">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3774,39 +3772,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="55">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="64">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="55"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3818,26 +3816,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="55">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="64">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3849,26 +3847,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="55">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="64">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3880,26 +3878,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="55">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="64">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="55"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3911,26 +3909,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="55">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="64">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="55"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3942,16 +3940,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="63">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="56"/>
-      <c r="G40" s="54"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3964,12 +3962,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3983,6 +3975,12 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3995,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4033,7 +4031,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45073</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4079,47 +4077,47 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45073</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>456086</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <v>45077</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4137,14 +4135,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4159,35 +4157,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>414624</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>414624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4200,19 +4198,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>414624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4220,18 +4218,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>41462</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4239,19 +4237,315 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>456086</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G4</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <f>H33</f>
+        <v>200000</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
+        <v>181819</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <f>F24*G24</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
+        <f>SUM(H24:H26)</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>18181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
+        <f>H27+H30</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4286,300 +4580,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="F5" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="F7" s="65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G4</f>
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40">
-        <f>H33</f>
-        <v>200000</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42">
-        <v>45077</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34">
-        <v>181819</v>
-      </c>
-      <c r="G24" s="35">
-        <v>1</v>
-      </c>
-      <c r="H24" s="36">
-        <f>F24*G24</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
-        <f>SUM(H24:H26)</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="36">
-        <v>18181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="48">
-        <f>H27+H30</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F24:F25"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA33B1-CDDD-485C-800E-3A126E5988D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F9BCD-49F1-428C-99A2-AD2ADB727CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>株式会社888　御中</t>
     <rPh sb="8" eb="10">
       <t>オンチュウ</t>
@@ -355,36 +351,6 @@
   </si>
   <si>
     <t>.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>水落様の紹介　瀧川様
-AD　2ヶ月</t>
-    <rPh sb="0" eb="2">
-      <t>ミズオチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タキカワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>水落様　AD 2ヶ月</t>
-    <rPh sb="0" eb="2">
-      <t>ミズオチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サマ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1058,6 +1024,18 @@
       <t>0022</t>
     </r>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>戎心斎橋ビル
+2階</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>紹介料</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1476,6 +1454,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1491,51 +1508,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1559,21 +1552,6 @@
     </xf>
     <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1602,13 +1580,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>895352</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107461</xdr:rowOff>
+      <xdr:rowOff>143766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
+      <xdr:colOff>625476</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>43677</xdr:rowOff>
+      <xdr:rowOff>92682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1649,8 +1627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4710237" y="893884"/>
-          <a:ext cx="783735" cy="766601"/>
+          <a:off x="4374048" y="938896"/>
+          <a:ext cx="685385" cy="777177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2321,9 +2299,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2354,14 +2330,14 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2406,48 +2382,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="15">
-        <v>44714</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H39</f>
-        <v>171457</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+        <v>60500</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
-        <v>44744</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+        <v>45120</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2465,14 +2441,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2487,37 +2463,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="41">
-        <v>92000</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="A24" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
+        <v>55000</v>
+      </c>
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
-        <v>92000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2530,41 +2504,28 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="41">
-        <v>63870</v>
-      </c>
-      <c r="G27" s="40">
-        <v>1</v>
-      </c>
-      <c r="H27" s="38">
-        <f>F27*G27</f>
-        <v>63870</v>
-      </c>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
@@ -2575,24 +2536,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2605,19 +2566,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34">
+      <c r="G33" s="46"/>
+      <c r="H33" s="47">
         <f>SUM(H24:H31)</f>
-        <v>155870</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2625,19 +2586,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38">
+      <c r="G36" s="50"/>
+      <c r="H36" s="37">
         <f>H33*0.1</f>
-        <v>15587</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2645,19 +2606,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="36">
+      <c r="G39" s="46"/>
+      <c r="H39" s="49">
         <f>H33+H36</f>
-        <v>171457</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="36"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="49"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2666,22 +2627,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2698,6 +2643,22 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2711,7 +2672,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2742,14 +2703,14 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2798,44 +2759,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
         <v>45105</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2853,14 +2814,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2875,33 +2836,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>29800</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2914,19 +2875,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2934,19 +2895,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2954,19 +2915,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2975,12 +2936,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2989,12 +2950,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3007,7 +2968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E04D83-24E5-4A13-82C8-507A7649C9BF}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3038,7 +3001,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -3049,7 +3012,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
@@ -3057,7 +3020,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -3065,7 +3028,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3105,44 +3068,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>165000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
         <v>45085</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3160,14 +3123,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3182,35 +3145,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>150000</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3223,19 +3186,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3243,18 +3206,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3262,19 +3225,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3283,17 +3246,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3303,6 +3255,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3355,32 +3318,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3416,44 +3379,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3471,14 +3434,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3493,33 +3456,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>363637</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3532,19 +3495,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3552,18 +3515,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3571,19 +3534,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3592,6 +3555,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3601,17 +3575,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3654,7 +3617,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>3</v>
@@ -3665,31 +3628,31 @@
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="F8" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3721,45 +3684,45 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="58"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="59">
+      <c r="B18" s="59"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="5.25" customHeight="1">
@@ -3772,39 +3735,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="A23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64">
+      <c r="A24" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="64"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3816,26 +3779,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="64">
+      <c r="A27" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="56">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="64"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3847,26 +3810,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="64">
+      <c r="A30" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="64"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3878,26 +3841,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="64">
+      <c r="A33" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="56">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="64"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3909,26 +3872,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="64">
+      <c r="A36" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="56">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="64"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3940,16 +3903,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="55">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="65"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3957,11 +3920,17 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3975,12 +3944,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4024,14 +3987,14 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4077,47 +4040,47 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>456086</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <v>45077</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4135,14 +4098,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4157,35 +4120,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>414624</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>414624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4198,19 +4161,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>414624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4218,18 +4181,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>41462</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4237,19 +4200,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>456086</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4258,17 +4221,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4278,6 +4230,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4323,7 +4286,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -4335,7 +4298,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4348,7 +4311,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="F7" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4379,43 +4342,43 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>200000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <v>45077</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4433,14 +4396,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4455,33 +4418,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>181819</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>181819</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4494,19 +4457,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>181819</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4514,18 +4477,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>18181</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4533,19 +4496,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>200000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4554,6 +4517,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4563,17 +4537,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F9BCD-49F1-428C-99A2-AD2ADB727CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB6B964-56F6-456C-A1E5-C903513DA126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -1454,20 +1454,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1493,27 +1508,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1528,30 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1976,9 +1976,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2016,9 +2016,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,26 +2051,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2103,26 +2086,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2299,7 +2265,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2337,7 +2303,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45090</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2386,44 +2352,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H39</f>
         <v>60500</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45120</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2441,14 +2407,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2463,35 +2429,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>55000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>55000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2504,24 +2470,24 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2536,24 +2502,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2566,19 +2532,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47">
+      <c r="G33" s="33"/>
+      <c r="H33" s="34">
         <f>SUM(H24:H31)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2586,19 +2552,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="37">
+      <c r="G36" s="37"/>
+      <c r="H36" s="38">
         <f>H33*0.1</f>
         <v>5500</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2606,19 +2572,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="49">
+      <c r="G39" s="33"/>
+      <c r="H39" s="36">
         <f>H33+H36</f>
         <v>60500</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="49"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2627,6 +2593,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2643,22 +2625,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2672,7 +2638,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2710,7 +2676,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45090</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2755,48 +2721,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>45074</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
-        <v>45105</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+        <v>45135</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2814,14 +2780,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2836,33 +2802,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>29800</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2875,19 +2841,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2895,19 +2861,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2915,19 +2881,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2936,12 +2902,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2950,12 +2916,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3068,44 +3034,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>165000</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45085</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3123,14 +3089,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3145,35 +3111,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>150000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3186,19 +3152,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3206,18 +3172,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3225,19 +3191,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>165000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3246,6 +3212,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3255,17 +3232,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3379,44 +3345,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3434,14 +3400,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3456,33 +3422,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>363637</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3495,19 +3461,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3515,18 +3481,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3534,19 +3500,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3555,17 +3521,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3575,6 +3530,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3684,41 +3650,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="64">
+      <c r="B18" s="54"/>
+      <c r="C18" s="59">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3735,39 +3701,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="56">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="64">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="56"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3779,26 +3745,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="56">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="64">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="56"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3810,26 +3776,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="56">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="64">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="56"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3841,26 +3807,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="56">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="64">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="56"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3872,26 +3838,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="56">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="64">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="56"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3903,16 +3869,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="63">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="57"/>
-      <c r="G40" s="55"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3925,12 +3891,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3944,6 +3904,12 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3994,7 +3960,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45090</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4040,47 +4006,47 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45090</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>456086</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <v>45077</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4098,14 +4064,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4120,35 +4086,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>414624</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>414624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4161,19 +4127,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>414624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4181,18 +4147,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>41462</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4200,19 +4166,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>456086</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4221,6 +4187,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4230,17 +4207,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4342,43 +4308,43 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>200000</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <v>45077</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4396,14 +4362,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4418,33 +4384,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>181819</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>181819</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4457,19 +4423,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>181819</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4477,18 +4443,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>18181</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4496,19 +4462,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>200000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4517,17 +4483,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4537,6 +4492,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB6B964-56F6-456C-A1E5-C903513DA126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C250AC17-35CC-4EA5-B86B-FC99FD8A081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,6 +1454,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1469,51 +1508,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1537,21 +1552,6 @@
     </xf>
     <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2352,44 +2352,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H39</f>
         <v>60500</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
         <v>45120</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2407,14 +2407,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2429,35 +2429,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>55000</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>55000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2470,24 +2470,24 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2502,24 +2502,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2532,19 +2532,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34">
+      <c r="G33" s="46"/>
+      <c r="H33" s="47">
         <f>SUM(H24:H31)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2552,19 +2552,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38">
+      <c r="G36" s="50"/>
+      <c r="H36" s="37">
         <f>H33*0.1</f>
         <v>5500</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2572,19 +2572,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="36">
+      <c r="G39" s="46"/>
+      <c r="H39" s="49">
         <f>H33+H36</f>
         <v>60500</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="36"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="49"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2593,22 +2593,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2625,6 +2609,22 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2638,7 +2638,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2676,7 +2678,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2721,48 +2723,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>45105</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
-        <v>45135</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+        <v>45166</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2780,14 +2782,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2802,33 +2804,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>29800</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2841,19 +2843,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2861,19 +2863,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2881,19 +2883,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2902,12 +2904,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2916,12 +2918,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2934,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E04D83-24E5-4A13-82C8-507A7649C9BF}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2973,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>45054</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3015,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>45054</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3034,44 +3036,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
-        <v>165000</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+        <v>65000</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
-        <v>45085</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+        <v>45156</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3089,14 +3091,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3111,35 +3113,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
-        <v>150000</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
+        <v>59091</v>
+      </c>
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
-        <v>150000</v>
+        <v>59091</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3152,19 +3154,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
-        <v>150000</v>
+        <v>59091</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3172,18 +3174,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
-        <v>15000</v>
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
+        <v>5909</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3191,19 +3193,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
-        <v>165000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3212,17 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3232,6 +3223,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3345,44 +3347,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3400,14 +3402,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3422,33 +3424,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>363637</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3461,19 +3463,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3481,18 +3483,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3500,19 +3502,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3521,6 +3523,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -3530,17 +3543,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3650,41 +3652,41 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
         <f>G39</f>
         <v>880000</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="59">
+      <c r="B18" s="59"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>44986</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="26" t="s">
@@ -3701,39 +3703,39 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56">
         <v>303000</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="64"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3745,26 +3747,26 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="64">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="56">
         <v>49500</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="64"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3776,26 +3778,26 @@
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="64">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56">
         <v>9390</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="64"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3807,26 +3809,26 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="64">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="56">
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="64"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3838,26 +3840,26 @@
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="64">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="56">
         <v>880000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="64"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3869,16 +3871,16 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="55">
         <v>880000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="65"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
@@ -3891,6 +3893,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F25"/>
     <mergeCell ref="G39:G40"/>
@@ -3904,12 +3912,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3960,7 +3962,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4006,47 +4008,47 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>456086</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <v>45077</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4064,14 +4066,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4086,35 +4088,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>414624</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>414624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4127,19 +4129,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>414624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4147,18 +4149,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>41462</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4166,19 +4168,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>456086</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4187,17 +4189,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4207,6 +4198,17 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4308,43 +4310,43 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
         <f>H33</f>
         <v>200000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43">
         <v>45077</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4362,14 +4364,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4384,33 +4386,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
         <v>181819</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f>F24*G24</f>
         <v>181819</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4423,19 +4425,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="46"/>
+      <c r="H27" s="47">
         <f>SUM(H24:H26)</f>
         <v>181819</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4443,18 +4445,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="50"/>
+      <c r="H30" s="37">
         <v>18181</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4462,19 +4464,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="46"/>
+      <c r="H33" s="49">
         <f>H27+H30</f>
         <v>200000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4483,6 +4485,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
@@ -4492,17 +4505,6 @@
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C250AC17-35CC-4EA5-B86B-FC99FD8A081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEDBBE4-84AB-49CF-A6BA-4DC067219228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -508,55 +508,6 @@
     <t>&amp;i</t>
   </si>
   <si>
-    <t>銀行名：三菱UFJ銀行　銀行コード：0005
-支店名：大和田支店　店番号：230
-口座情報：普通預金　0128122
-名義：石田優希</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ミツビシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>シテンメイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>オオワダ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ミセバンゴウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>メイギ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>石田優希</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -584,18 +535,8 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>※その他、通院費用に至っては治療後、連絡いたします。</t>
-  </si>
-  <si>
     <t>[21AW】 Moncler Marque ショート 
 ダウンジャケット</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>交通事故に伴い物損に関する請求明細</t>
-    <rPh sb="13" eb="17">
-      <t>セイキュウメイサイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1034,6 +975,55 @@
     <t>紹介料</t>
     <rPh sb="0" eb="3">
       <t>ショウカイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>銀行名：PayPay銀行　銀行コード：0033
+支店名：ビジネス営業部　店番号：005
+口座情報：普通預金　4779220
+名義：アクシス（カ</t>
+    <rPh sb="0" eb="3">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>メイギ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1362,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1519,9 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2267,19 +2254,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2290,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45130</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2391,7 +2378,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2430,11 +2417,11 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -2469,7 +2456,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+    <row r="27" spans="1:8" ht="13" customHeight="1">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -2501,7 +2488,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+    <row r="30" spans="1:8" ht="13" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -2638,23 +2625,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2665,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45130</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2766,7 +2753,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2940,19 +2927,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3062,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3105,7 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="34"/>
@@ -3248,19 +3235,19 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3286,32 +3273,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3360,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -3386,7 +3373,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3427,7 +3414,7 @@
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="34"/>
@@ -3552,24 +3539,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="8.796875" style="21"/>
     <col min="2" max="2" width="7" style="21" customWidth="1"/>
     <col min="3" max="3" width="11" style="21" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="21"/>
+    <col min="5" max="5" width="10.796875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="17.5">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -3585,42 +3574,42 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="24">
-        <v>44958</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="F8" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3638,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="24">
-        <v>44958</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3652,46 +3641,44 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
         <f>G39</f>
-        <v>880000</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="63"/>
+        <v>50000</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="64">
+      <c r="B18" s="58"/>
+      <c r="C18" s="63">
         <f>EDATE(G11,1)</f>
-        <v>44986</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
-      <c r="A21" s="26" t="s">
-        <v>42</v>
-      </c>
+        <v>45191</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+    </row>
+    <row r="21" spans="1:7" ht="13">
+      <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="5.25" customHeight="1">
       <c r="A22" s="27"/>
@@ -3704,7 +3691,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3717,14 +3704,14 @@
     </row>
     <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
       <c r="A24" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="56">
+      <c r="G24" s="55">
         <v>303000</v>
       </c>
     </row>
@@ -3735,7 +3722,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -3746,16 +3733,16 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" ht="13" hidden="1" customHeight="1">
       <c r="A27" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
-      <c r="G27" s="56">
+      <c r="G27" s="55">
         <v>49500</v>
       </c>
     </row>
@@ -3766,7 +3753,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
@@ -3777,16 +3764,16 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" ht="13" hidden="1" customHeight="1">
       <c r="A30" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="56">
+      <c r="G30" s="55">
         <v>9390</v>
       </c>
     </row>
@@ -3797,7 +3784,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
@@ -3808,16 +3795,16 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" ht="13" hidden="1" customHeight="1">
       <c r="A33" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="56">
+      <c r="G33" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -3828,7 +3815,7 @@
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="5.25" customHeight="1">
       <c r="A35" s="22"/>
@@ -3839,17 +3826,17 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7" ht="12.95" customHeight="1">
+    <row r="36" spans="1:7" ht="13" customHeight="1">
       <c r="A36" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
-      <c r="G36" s="56">
-        <v>880000</v>
+      <c r="G36" s="55">
+        <v>50000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3859,7 +3846,7 @@
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="56"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1">
       <c r="A38" s="22"/>
@@ -3871,25 +3858,20 @@
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="56" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="55">
-        <v>880000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="57"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="5.25" customHeight="1">
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="21" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3924,21 +3906,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3955,14 +3939,14 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45130</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4008,7 +3992,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45130</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
@@ -4050,7 +4034,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -4089,11 +4073,11 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="34"/>
@@ -4225,19 +4209,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -4254,7 +4238,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -4266,7 +4250,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4279,7 +4263,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="F7" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4348,7 +4332,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -4387,7 +4371,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="51"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEDBBE4-84AB-49CF-A6BA-4DC067219228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8EE3D4-F030-402E-AC16-85AC0A341E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -1024,6 +1024,20 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>登録番号：T5120001226940</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>消費税（10%）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1352,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1539,6 +1553,9 @@
     </xf>
     <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2290,7 +2307,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45160</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2665,7 +2682,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45160</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3541,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12"/>
@@ -3906,9 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -3946,7 +3961,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45160</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3972,6 +3987,9 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -3992,7 +4010,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45160</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
@@ -4002,7 +4020,7 @@
       <c r="B16" s="40"/>
       <c r="C16" s="41">
         <f>H33</f>
-        <v>456086</v>
+        <v>712500</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="45" t="s">
@@ -4026,7 +4044,8 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="43">
-        <v>45077</v>
+        <f ca="1">EDATE(G11,1)</f>
+        <v>45236</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="45"/>
@@ -4082,14 +4101,14 @@
       <c r="D24" s="52"/>
       <c r="E24" s="34"/>
       <c r="F24" s="35">
-        <v>414624</v>
+        <v>647728</v>
       </c>
       <c r="G24" s="36">
         <v>1</v>
       </c>
       <c r="H24" s="37">
         <f>F24*G24</f>
-        <v>414624</v>
+        <v>647728</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4117,15 +4136,15 @@
         <v>21</v>
       </c>
       <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="H27" s="37">
         <f>SUM(H24:H26)</f>
-        <v>414624</v>
+        <v>647728</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4134,11 +4153,11 @@
     </row>
     <row r="30" spans="1:8">
       <c r="F30" s="50" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="37">
-        <v>41462</v>
+        <v>64772</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4156,15 +4175,15 @@
         <v>21</v>
       </c>
       <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="H33" s="65">
         <f>H27+H30</f>
-        <v>456086</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="65"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>

--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8EE3D4-F030-402E-AC16-85AC0A341E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14B4ED-5A9C-48AB-BFDF-CD68F4815745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -1038,6 +1038,13 @@
     <t>消費税（10%）</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1458,20 +1465,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1497,27 +1519,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1529,30 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="31" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2271,19 +2278,19 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2314,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45205</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2356,46 +2363,46 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H39</f>
         <v>60500</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45120</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2411,14 +2418,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2433,35 +2440,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>55000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>55000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2473,25 +2480,25 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="13" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2505,25 +2512,25 @@
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="13" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+    <row r="30" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2536,19 +2543,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47">
+      <c r="G33" s="33"/>
+      <c r="H33" s="34">
         <f>SUM(H24:H31)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2556,19 +2563,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="37">
+      <c r="G36" s="37"/>
+      <c r="H36" s="38">
         <f>H33*0.1</f>
         <v>5500</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2576,19 +2583,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="49">
+      <c r="G39" s="33"/>
+      <c r="H39" s="36">
         <f>H33+H36</f>
         <v>60500</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="49"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2597,6 +2604,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="A23:B23"/>
@@ -2613,22 +2636,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="A30:B31"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2646,19 +2653,19 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2689,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45205</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2731,46 +2738,46 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45166</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2786,14 +2793,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2808,33 +2815,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>29800</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2847,19 +2854,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2867,19 +2874,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2887,19 +2894,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2908,12 +2915,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A23:B23"/>
@@ -2922,12 +2929,12 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2944,19 +2951,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3040,46 +3047,46 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
         <f>H33</f>
         <v>65000</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
         <f>EDATE(G11,1)</f>
         <v>45156</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3095,14 +3102,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3117,35 +3124,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
         <v>59091</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="38">
         <f>F24*G24</f>
         <v>59091</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3158,19 +3165,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
         <f>SUM(H24:H26)</f>
         <v>59091</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3178,18 +3185,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
         <v>5909</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3197,19 +3204,1291 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
         <f>H27+H30</f>
         <v>65000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7D9D1-DDA0-4052-A2C8-B95EB91575E0}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="A6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G4</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <f>H33</f>
+        <v>400000</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
+        <f>EDATE(G11,1)</f>
+        <v>45168</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
+        <v>363637</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <f>F24*G24</f>
+        <v>363637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
+        <f>SUM(H24:H26)</f>
+        <v>363637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>36363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
+        <f>H27+H30</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="7" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="24">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="F11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A16" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55">
+        <f>G39</f>
+        <v>50000</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="1:7" ht="3" customHeight="1">
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1">
+      <c r="A18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="59">
+        <f>EDATE(G11,1)</f>
+        <v>45191</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
+      <c r="A24" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63">
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A27" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A30" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+    </row>
+    <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A33" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+    </row>
+    <row r="35" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A36" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+    </row>
+    <row r="38" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="F39" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="63">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="F40" s="64"/>
+      <c r="G40" s="63"/>
+    </row>
+    <row r="41" spans="1:7" ht="5.25" customHeight="1">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A27:F28"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="A33:F34"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <f>H33</f>
+        <v>45000</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
+        <f ca="1">EDATE(G11,1)</f>
+        <v>45358</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
+        <v>40910</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <f>F24*G24</f>
+        <v>40910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="38">
+        <f>SUM(H24:H26)</f>
+        <v>40910</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="65">
+        <f>H27+H30</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="6:8" ht="5.25" customHeight="1">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G4</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <f>H33</f>
+        <v>200000</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="3" customHeight="1">
+      <c r="E17" s="50"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1">
+      <c r="A18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41">
+        <v>181819</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <f>F24*G24</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="5.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34">
+        <f>SUM(H24:H26)</f>
+        <v>181819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>18181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="5.25" customHeight="1">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="36">
+        <f>H27+H30</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3244,1274 +4523,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7D9D1-DDA0-4052-A2C8-B95EB91575E0}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G4</f>
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f>H33</f>
-        <v>400000</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
-        <f>EDATE(G11,1)</f>
-        <v>45168</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
-        <v>363637</v>
-      </c>
-      <c r="G24" s="36">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <f>F24*G24</f>
-        <v>363637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
-        <f>SUM(H24:H26)</f>
-        <v>363637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
-        <v>36363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
-        <f>H27+H30</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F24:F25"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="21"/>
-    <col min="2" max="2" width="7" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="21.296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17.5">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="24">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="F11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="24">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59">
-        <f>G39</f>
-        <v>50000</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="62"/>
-    </row>
-    <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="63">
-        <f>EDATE(G11,1)</f>
-        <v>45191</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="13">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55">
-        <v>303000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" ht="13" hidden="1" customHeight="1">
-      <c r="A27" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7" ht="13" hidden="1" customHeight="1">
-      <c r="A30" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55">
-        <v>9390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="13" hidden="1" customHeight="1">
-      <c r="A33" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="13" customHeight="1">
-      <c r="A36" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="F39" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="55">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="F40" s="56"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" ht="5.25" customHeight="1">
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A27:F28"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F39:F40"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f>H33</f>
-        <v>712500</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
-        <f ca="1">EDATE(G11,1)</f>
-        <v>45236</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
-        <v>647728</v>
-      </c>
-      <c r="G24" s="36">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <f>F24*G24</f>
-        <v>647728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="37">
-        <f>SUM(H24:H26)</f>
-        <v>647728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
-        <v>64772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="65">
-        <f>H27+H30</f>
-        <v>712500</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.5">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="F5" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="F7" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G4</f>
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f>H33</f>
-        <v>200000</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43">
-        <v>45077</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
-        <v>181819</v>
-      </c>
-      <c r="G24" s="36">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <f>F24*G24</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47">
-        <f>SUM(H24:H26)</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="37">
-        <v>18181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="49">
-        <f>H27+H30</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F24:F25"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/契約書関連_ゆうきくん/請求書.xlsx
+++ b/契約書関連_ゆうきくん/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14B4ED-5A9C-48AB-BFDF-CD68F4815745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F9672-8FA8-4C7E-8BB1-2C4FF17DA062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書1" sheetId="7" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="請求書4" sheetId="10" r:id="rId4"/>
     <sheet name="請求書5" sheetId="11" r:id="rId5"/>
     <sheet name="請求書6" sheetId="12" r:id="rId6"/>
-    <sheet name="請求書7" sheetId="14" r:id="rId7"/>
+    <sheet name="請求書7" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <r>
       <rPr>
@@ -573,111 +573,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>コンサル費用</t>
-    <rPh sb="4" eb="6">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(株)UNITED STYLE</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>106</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0032 </t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>東京都港区六本木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7-21-24</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-      </rPr>
-      <t>THE MODULE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>六本木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-      </rPr>
-      <t>308</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>大阪府 大阪市西区 江戸堀 3丁目2番25-607</t>
     <rPh sb="15" eb="17">
       <t>チョウメ</t>
@@ -890,42 +785,112 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>内野　真静　様</t>
+    <t>戎心斎橋ビル
+2階</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>紹介料</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>銀行名：PayPay銀行　銀行コード：0033
+支店名：ビジネス営業部　店番号：005
+口座情報：普通預金　4779220
+名義：アクシス（カ</t>
+    <rPh sb="0" eb="3">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>登録番号：T5120001226940</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>消費税（10%）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>合計</t>
     <rPh sb="0" eb="2">
-      <t>ウチノ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マコト</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シズカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>内野　真静</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>AXIS</t>
-    </r>
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>〒550-0013</t>
+  </si>
+  <si>
+    <t>住所：大阪府大阪市西区新町１丁目１４番２１</t>
+  </si>
+  <si>
+    <t>　　  THE SANCTUS TOWER 4818号</t>
+  </si>
+  <si>
+    <t>株式会社ＡＬＯ’ｓ</t>
+  </si>
+  <si>
+    <t>登録番号：T7120001254428</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>株式会社</t>
+      <t>TEL</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -934,7 +899,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>〒</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -943,7 +908,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>571</t>
+      <t>070</t>
     </r>
     <r>
       <rPr>
@@ -962,90 +927,136 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0022</t>
+      <t>4007</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8394</t>
+    </r>
+  </si>
+  <si>
+    <t>銀行名：みずほ銀行　銀行コード：0001
+支店名：船場支店　店番号：513
+口座情報：普通預金　3075994
+名義：カ）アローズ</t>
+  </si>
+  <si>
+    <t>品目</t>
+  </si>
+  <si>
+    <t>ハートリンクコンサルティング株式会社 御中</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>〒540-0038</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>戎心斎橋ビル
-2階</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>紹介料</t>
-    <rPh sb="0" eb="3">
-      <t>ショウカイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>銀行名：PayPay銀行　銀行コード：0033
-支店名：ビジネス営業部　店番号：005
-口座情報：普通預金　4779220
-名義：アクシス（カ</t>
-    <rPh sb="0" eb="3">
-      <t>ギンコウメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>メイギ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>登録番号：T5120001226940</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>消費税（10%）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>合計</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大阪市中央区内淡路町</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丁目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3-1</t>
+    </r>
     <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アワジチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>EHH大手前8階</t>
+    <rPh sb="3" eb="6">
+      <t>オオテマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>上田　友斗</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>業務委託費</t>
+    <rPh sb="0" eb="5">
+      <t>ギョウムイタクヒ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>業務委託費</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1249,19 +1260,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1277,6 +1275,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1306,7 +1318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1360,8 +1372,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1372,8 +1412,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1459,10 +1500,52 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1564,12 +1647,52 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16"/>
     <cellStyle name="見出し 3" xfId="3" builtinId="18"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{6833EEA8-857E-447A-91E1-71F1C3730622}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1790,73 +1913,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>431801</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>984251</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>34522</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12B4BA7-4D2A-4FE2-992D-AC9AB28C3D8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="100000"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:colorTemperature colorTemp="6488"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="36000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4718051" y="914401"/>
-          <a:ext cx="552450" cy="529821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>895352</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>202711</xdr:rowOff>
@@ -1919,27 +1975,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>895352</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>202711</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>530226</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80312</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E43A1DC-9F4A-4CEA-B938-884309F80344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FE45D8-5D78-4B8B-B46A-6D0A15820C7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,33 +2004,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="100000"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:colorTemperature colorTemp="6488"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="36000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4425952" y="999636"/>
-          <a:ext cx="682624" cy="782964"/>
+          <a:off x="4591050" y="1190625"/>
+          <a:ext cx="581025" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,7 +2352,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2363,44 +2401,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
         <f>H39</f>
         <v>60500</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="61"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>45120</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2418,14 +2456,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2440,35 +2478,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="A24" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57">
         <v>55000</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="54">
         <f>F24*G24</f>
         <v>55000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2481,24 +2519,24 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="A29" s="16" t="s">
@@ -2513,24 +2551,24 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="A32" s="6"/>
@@ -2543,19 +2581,19 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34">
+      <c r="G33" s="49"/>
+      <c r="H33" s="50">
         <f>SUM(H24:H31)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -2563,19 +2601,19 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="6:8">
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38">
+      <c r="G36" s="53"/>
+      <c r="H36" s="54">
         <f>H33*0.1</f>
         <v>5500</v>
       </c>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="6:8" ht="5.25" customHeight="1">
       <c r="F38" s="6"/>
@@ -2583,19 +2621,19 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="36">
+      <c r="G39" s="49"/>
+      <c r="H39" s="52">
         <f>H33+H36</f>
         <v>60500</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="36"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="6:8" ht="5.25" customHeight="1">
       <c r="F41" s="6"/>
@@ -2689,7 +2727,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2738,44 +2776,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
         <f>H33</f>
         <v>32780</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="61"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>45166</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -2793,14 +2831,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2815,33 +2853,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="B24" s="55"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57">
         <v>29800</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="54">
         <f>F24*G24</f>
         <v>29800</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -2854,19 +2892,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="49"/>
+      <c r="H27" s="50">
         <f>SUM(H24:H26)</f>
         <v>29800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -2874,19 +2912,19 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="53"/>
+      <c r="H30" s="54">
         <f>H27*0.1</f>
         <v>2980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -2894,19 +2932,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="49"/>
+      <c r="H33" s="52">
         <f>H27+H30</f>
         <v>32780</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3047,44 +3085,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
         <f>H33</f>
         <v>65000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="61"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>45156</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3102,14 +3140,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3124,35 +3162,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="B24" s="55"/>
+      <c r="C24" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57">
         <v>59091</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="54">
         <f>F24*G24</f>
         <v>59091</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3165,19 +3203,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="49"/>
+      <c r="H27" s="50">
         <f>SUM(H24:H26)</f>
         <v>59091</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3185,18 +3223,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="53"/>
+      <c r="H30" s="54">
         <v>5909</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3204,19 +3242,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="49"/>
+      <c r="H33" s="52">
         <f>H27+H30</f>
         <v>65000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3257,7 +3295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7D9D1-DDA0-4052-A2C8-B95EB91575E0}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3297,32 +3337,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3358,44 +3398,44 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
         <f>H33</f>
         <v>400000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="61"/>
+      <c r="C18" s="64">
         <f>EDATE(G11,1)</f>
         <v>45168</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -3413,14 +3453,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -3435,33 +3475,33 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57">
         <v>363637</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="54">
         <f>F24*G24</f>
         <v>363637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -3474,19 +3514,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="49"/>
+      <c r="H27" s="50">
         <f>SUM(H24:H26)</f>
         <v>363637</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -3494,18 +3534,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="G30" s="53"/>
+      <c r="H30" s="54">
         <v>36363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -3513,19 +3553,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
+      <c r="G33" s="49"/>
+      <c r="H33" s="52">
         <f>H27+H30</f>
         <v>400000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -3563,11 +3603,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7F1A9-21EC-418C-9A26-DDE1D2A9FCD1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <cols>
@@ -3577,7 +3615,7 @@
     <col min="4" max="4" width="8.5" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="21" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="21" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="21"/>
   </cols>
@@ -3597,332 +3635,337 @@
       <c r="G2" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
+      <c r="A4" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="24">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="17" t="s">
-        <v>45</v>
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="17" t="s">
-        <v>46</v>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="18" t="s">
-        <v>47</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
+      <c r="A8" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="F8" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="48"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="F11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="24">
-        <v>45160</v>
-      </c>
+      <c r="F10" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="F12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="24">
+        <v>45351</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+    <row r="17" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A17" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55">
-        <f>G39</f>
-        <v>50000</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71">
+        <f>G40</f>
+        <v>170690</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="1:7" ht="3" customHeight="1">
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="F17" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="1:7" ht="3" customHeight="1">
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1">
+      <c r="A19" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="59">
-        <f>EDATE(G11,1)</f>
-        <v>45191</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="61" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="75">
+        <f>EDATE(G12,1)</f>
+        <v>45380</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="28" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" hidden="1" customHeight="1">
-      <c r="A24" s="62" t="s">
+    <row r="25" spans="1:7" ht="12" hidden="1" customHeight="1">
+      <c r="A25" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79">
         <v>303000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A27" s="62" t="s">
+    <row r="26" spans="1:7" hidden="1">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
+    </row>
+    <row r="27" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A28" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79">
         <v>49500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A30" s="62" t="s">
+    <row r="29" spans="1:7" hidden="1">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+    </row>
+    <row r="30" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A31" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63">
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79">
         <v>9390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-    </row>
-    <row r="32" spans="1:7" ht="5.25" hidden="1" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.95" hidden="1" customHeight="1">
-      <c r="A33" s="62" t="s">
+    <row r="32" spans="1:7" hidden="1">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+    </row>
+    <row r="33" spans="1:7" ht="5.25" hidden="1" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.95" hidden="1" customHeight="1">
+      <c r="A34" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63">
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A36" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="1:7" ht="5.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="F39" s="64" t="s">
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+    </row>
+    <row r="36" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.95" customHeight="1">
+      <c r="A37" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79">
+        <v>170690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="1:7" ht="5.25" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="F40" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="63">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="F40" s="64"/>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7" ht="5.25" customHeight="1">
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="G40" s="79">
+        <v>170690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="F41" s="80"/>
+      <c r="G41" s="79"/>
+    </row>
+    <row r="42" spans="1:7" ht="5.25" customHeight="1">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A27:F28"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:G18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3930,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A32A4-F548-4460-9D60-FD05BC6F903D}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
@@ -3963,14 +4006,14 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3997,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4019,48 +4062,48 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62">
         <f>H33</f>
         <v>45000</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
+      <c r="B18" s="61"/>
+      <c r="C18" s="64">
         <f ca="1">EDATE(G11,1)</f>
-        <v>45358</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+        <v>45380</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4078,14 +4121,14 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
@@ -4100,35 +4143,35 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
+      <c r="A24" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57">
         <v>40910</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="54">
         <f>F24*G24</f>
         <v>40910</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
       <c r="A26" s="6"/>
@@ -4141,19 +4184,19 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="38">
+      <c r="G27" s="49"/>
+      <c r="H27" s="54">
         <f>SUM(H24:H26)</f>
         <v>40910</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="38"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="5.25" customHeight="1">
       <c r="F29" s="6"/>
@@ -4161,18 +4204,18 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
+      <c r="F30" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54">
         <v>4090</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1">
       <c r="F32" s="6"/>
@@ -4180,19 +4223,19 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="65">
+      <c r="F33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="81">
         <f>H27+H30</f>
         <v>45000</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="65"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="81"/>
     </row>
     <row r="35" spans="6:8" ht="5.25" customHeight="1">
       <c r="F35" s="6"/>
@@ -4230,23 +4273,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE7AB7-B721-4836-A74E-92225DAE0DFD}">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FA8062-F5CC-4A5A-8BC6-0FDAC6579FC3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12" style="32" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
@@ -4255,110 +4303,133 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
-        <v>45137</v>
+      <c r="G4" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="A5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="A6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="F7" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="F10" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="F12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G4</f>
-        <v>45137</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
-        <f>H33</f>
-        <v>200000</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="50" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="86">
+        <f>H24</f>
+        <v>409500</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="1:8" ht="3" customHeight="1">
-      <c r="E17" s="50"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48">
-        <v>45077</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="91">
+        <f ca="1">EDATE(G12,1)</f>
+        <v>45380</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="21" spans="1:8" ht="13.5">
       <c r="A21" s="12" t="s">
@@ -4366,157 +4437,96 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A23" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41">
-        <v>181819</v>
-      </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38">
-        <f>F24*G24</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="54">
+        <v>409500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.95" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="5.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="F27" s="33" t="s">
+    <row r="27" spans="1:8" ht="12.95" customHeight="1">
+      <c r="F27" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34">
+      <c r="G27" s="83"/>
+      <c r="H27" s="54">
         <f>SUM(H24:H26)</f>
-        <v>181819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="F30" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
-        <v>18181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36">
-        <f>H27+H30</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="6:8" ht="5.25" customHeight="1">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+        <v>409500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.95" customHeight="1">
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" s="21" customFormat="1" ht="5.25" customHeight="1">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
+  <mergeCells count="11">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="F16:H18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
